--- a/sorties_joueurs.xlsx
+++ b/sorties_joueurs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64053284332b5f0/Documents/Work/Perso/Projets/RP1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64053284332b5f0/Documents/Work/Perso/Projets/RP1/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{066AF458-F869-4CE4-BFDF-C38FE2CEF1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BB3748A-A6F8-4236-BB2B-8DA5E52A4CED}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{066AF458-F869-4CE4-BFDF-C38FE2CEF1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EFFAB60-7518-4F1E-A4DF-CA5507517932}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="154">
   <si>
     <t>Joueurs</t>
   </si>
@@ -84,42 +84,6 @@
     <t>Nofeuskri#4746</t>
   </si>
   <si>
-    <t>FcT Adam (RedBull)</t>
-  </si>
-  <si>
-    <t>PuR Voltha (Ferrari)</t>
-  </si>
-  <si>
-    <t>MCR Jayrko (Alfa Romeo)</t>
-  </si>
-  <si>
-    <t>RaavenBZH (Redbull)</t>
-  </si>
-  <si>
-    <t>MVT Thomas (Mercedes)</t>
-  </si>
-  <si>
-    <t>Legion Tomoe (Aston Martin)</t>
-  </si>
-  <si>
-    <t>ERT Aurelius (Williams)</t>
-  </si>
-  <si>
-    <t>RP1 Gachette (Aston Martin)</t>
-  </si>
-  <si>
-    <t>MCR Papyx (Alfa Romeo)</t>
-  </si>
-  <si>
-    <t>Yozana (Ferrari)</t>
-  </si>
-  <si>
-    <t>RP1 Owain (Alfa Romeo)</t>
-  </si>
-  <si>
-    <t>RP1 Fifou (Mclaren)</t>
-  </si>
-  <si>
     <t>Pilotes remplacés</t>
   </si>
   <si>
@@ -138,20 +102,413 @@
     <t>RaavenBZH</t>
   </si>
   <si>
-    <t>Définitif</t>
-  </si>
-  <si>
     <t>Non définitif</t>
   </si>
   <si>
     <t>MVT Thomas</t>
+  </si>
+  <si>
+    <t>MCR JayRKO#5703</t>
+  </si>
+  <si>
+    <t>RP1 Luca</t>
+  </si>
+  <si>
+    <t>PuR Stitoxxe</t>
+  </si>
+  <si>
+    <t>PuR Racing</t>
+  </si>
+  <si>
+    <t>PuR Vincent</t>
+  </si>
+  <si>
+    <t>PuR Ilton</t>
+  </si>
+  <si>
+    <t>ERT Aurelius</t>
+  </si>
+  <si>
+    <t>S0O Skyzzz</t>
+  </si>
+  <si>
+    <t>MCR Papyx</t>
+  </si>
+  <si>
+    <t>Non4me Pagaa</t>
+  </si>
+  <si>
+    <t>RP1 Owain</t>
+  </si>
+  <si>
+    <t>TX3 Soap</t>
+  </si>
+  <si>
+    <t>ERT BatXone #8529</t>
+  </si>
+  <si>
+    <t>ERT Niloboo</t>
+  </si>
+  <si>
+    <t>ERT BatXone</t>
+  </si>
+  <si>
+    <t>XRT Baka</t>
+  </si>
+  <si>
+    <t>ERT Wartors</t>
+  </si>
+  <si>
+    <t>Nygraal</t>
+  </si>
+  <si>
+    <t>CRZ iQuaZz</t>
+  </si>
+  <si>
+    <t>ERT Ricky</t>
+  </si>
+  <si>
+    <t>ERT Niloboo#4074</t>
+  </si>
+  <si>
+    <t>LDL Oli</t>
+  </si>
+  <si>
+    <t>FcT LaSouche</t>
+  </si>
+  <si>
+    <t>AlexGT500</t>
+  </si>
+  <si>
+    <t>ERT Matfax</t>
+  </si>
+  <si>
+    <t>ERT Mirage</t>
+  </si>
+  <si>
+    <t>MCR Path#8207</t>
+  </si>
+  <si>
+    <t>Vinboy</t>
+  </si>
+  <si>
+    <t>TX3 Enzo</t>
+  </si>
+  <si>
+    <t>ECS Finesse</t>
+  </si>
+  <si>
+    <t>ï¿½XYG3N ?? #0970</t>
+  </si>
+  <si>
+    <t>RP1 Winterr</t>
+  </si>
+  <si>
+    <t>PuR Voltha</t>
+  </si>
+  <si>
+    <t>Exotic Oxygen</t>
+  </si>
+  <si>
+    <t>RP1 Gachette</t>
+  </si>
+  <si>
+    <t>SPL EroziaH</t>
+  </si>
+  <si>
+    <t>RP1 Durtom</t>
+  </si>
+  <si>
+    <t>RP1 Chadoo#8125</t>
+  </si>
+  <si>
+    <t>VRT Tribion</t>
+  </si>
+  <si>
+    <t>BenBdBy</t>
+  </si>
+  <si>
+    <t>Istoozen eKo</t>
+  </si>
+  <si>
+    <t>RP1 Fifou</t>
+  </si>
+  <si>
+    <t>Mihai Rl#1826</t>
+  </si>
+  <si>
+    <t>RP1 Chadoo</t>
+  </si>
+  <si>
+    <t>RP1 Woody</t>
+  </si>
+  <si>
+    <t>Non4me Cami</t>
+  </si>
+  <si>
+    <t>DucPasCharlie</t>
+  </si>
+  <si>
+    <t>ALEXGT500 GAME#2172</t>
+  </si>
+  <si>
+    <t>PuR Varane</t>
+  </si>
+  <si>
+    <t>Knacki Ball</t>
+  </si>
+  <si>
+    <t>ERT Toon</t>
+  </si>
+  <si>
+    <t>Playnum11</t>
+  </si>
+  <si>
+    <t>Oli0055#6847</t>
+  </si>
+  <si>
+    <t>Modz Scboy</t>
+  </si>
+  <si>
+    <t>SKS Flyart</t>
+  </si>
+  <si>
+    <t>FcT Theo#6461</t>
+  </si>
+  <si>
+    <t>LTR Coach</t>
+  </si>
+  <si>
+    <t>MCR Papyx53#4723</t>
+  </si>
+  <si>
+    <t>MCR Jayrko</t>
+  </si>
+  <si>
+    <t>Legion Tomoe</t>
+  </si>
+  <si>
+    <t>RP1FIFI93#6211</t>
+  </si>
+  <si>
+    <t>XRT Darkfly</t>
+  </si>
+  <si>
+    <t>RP1 Fifi</t>
+  </si>
+  <si>
+    <t>RP1 Ice</t>
+  </si>
+  <si>
+    <t>LDL SAUMON#6724</t>
+  </si>
+  <si>
+    <t>Non4me Livai</t>
+  </si>
+  <si>
+    <t>Non4me Jordy</t>
+  </si>
+  <si>
+    <t>PuR Vincent#5110</t>
+  </si>
+  <si>
+    <t>Jancker21</t>
+  </si>
+  <si>
+    <t>ERT Aurelius#7215</t>
+  </si>
+  <si>
+    <t>ERT Matfax#0803</t>
+  </si>
+  <si>
+    <t>MCR Path</t>
+  </si>
+  <si>
+    <t>RP1 Virlix</t>
+  </si>
+  <si>
+    <t>TX3 Matt</t>
+  </si>
+  <si>
+    <t>DurTom aka Infiltrï¿½#1584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERT MiRaGE #6305 </t>
+  </si>
+  <si>
+    <t>Is Honoka</t>
+  </si>
+  <si>
+    <t>Le Grinch#7237</t>
+  </si>
+  <si>
+    <t>AlexSCH71</t>
+  </si>
+  <si>
+    <t>LTR COACH#9830</t>
+  </si>
+  <si>
+    <t>Illus1on14#6024</t>
+  </si>
+  <si>
+    <t>RP1 Okwaru</t>
+  </si>
+  <si>
+    <t>PuRVarane#7856</t>
+  </si>
+  <si>
+    <t>ERT Redevils</t>
+  </si>
+  <si>
+    <t>ERT Jet#0218</t>
+  </si>
+  <si>
+    <t>XRT darkfly#3727</t>
+  </si>
+  <si>
+    <t>XRT Aots</t>
+  </si>
+  <si>
+    <t>Istoozen eKo#0841</t>
+  </si>
+  <si>
+    <t>FcT Coco#6690</t>
+  </si>
+  <si>
+    <t>FcT Coco</t>
+  </si>
+  <si>
+    <t>IRC Niicklass #1494</t>
+  </si>
+  <si>
+    <t>PuR Mattuvu#8960</t>
+  </si>
+  <si>
+    <t>RP1 Virlix #2107</t>
+  </si>
+  <si>
+    <t>FcT Deadpool #3868</t>
+  </si>
+  <si>
+    <t>FcT Deadpool</t>
+  </si>
+  <si>
+    <t>ERT Tiiste</t>
+  </si>
+  <si>
+    <t>RP1 iiuK #1332</t>
+  </si>
+  <si>
+    <t>RP1 Vara#2877</t>
+  </si>
+  <si>
+    <t>SHZ Noctis</t>
+  </si>
+  <si>
+    <t>RP1 Lito</t>
+  </si>
+  <si>
+    <t>Vinboy#8739</t>
+  </si>
+  <si>
+    <t>RP1 Winterr#0986</t>
+  </si>
+  <si>
+    <t>RP1 Ice#2372</t>
+  </si>
+  <si>
+    <t>XRT Arthur</t>
+  </si>
+  <si>
+    <t>ElDiablo#5634</t>
+  </si>
+  <si>
+    <t>AfT Lowky</t>
+  </si>
+  <si>
+    <t>FcT Julien#1209</t>
+  </si>
+  <si>
+    <t>ERT toon#4123</t>
+  </si>
+  <si>
+    <t>AfT Lï¿½wky#5739</t>
+  </si>
+  <si>
+    <t>RP1 Caotik#4601</t>
+  </si>
+  <si>
+    <t>CHR Olivz</t>
+  </si>
+  <si>
+    <t>Raven_#1681</t>
+  </si>
+  <si>
+    <t>RP1 Maldini#2971</t>
+  </si>
+  <si>
+    <t>Woodylejouet#6399</t>
+  </si>
+  <si>
+    <t>Yozana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHZ Noctis #8461 </t>
+  </si>
+  <si>
+    <t>PuR Marth</t>
+  </si>
+  <si>
+    <t>RP1 Papash #1147</t>
+  </si>
+  <si>
+    <t>FcT Adam #6474</t>
+  </si>
+  <si>
+    <t>RP1 Fifou#8771</t>
+  </si>
+  <si>
+    <t>PuR Tomi #3009</t>
+  </si>
+  <si>
+    <t>QRL ZePro#8749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP1 Okwaru#9095 </t>
+  </si>
+  <si>
+    <t>SkS FlYArT#5679</t>
+  </si>
+  <si>
+    <t>JNPJD#6703</t>
+  </si>
+  <si>
+    <t>PuR Ilton#1432</t>
+  </si>
+  <si>
+    <t>PuR Ultraaa#9615</t>
+  </si>
+  <si>
+    <t>RP1 Gachette#9691</t>
+  </si>
+  <si>
+    <t>SPARTACUS#3657</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>NxS xTiga</t>
+  </si>
+  <si>
+    <t>PuR Ultraaa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,18 +651,12 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Abadi"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,8 +860,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -640,8 +997,137 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -657,45 +1143,28 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,71 +1213,91 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1165,222 +1654,4711 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AA9"/>
+  <dimension ref="B1:AA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.7109375" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="15.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="20"/>
+    <row r="1" spans="2:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="26"/>
     </row>
-    <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="19" t="s">
-        <v>31</v>
+    <row r="3" spans="2:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="19">
+        <v>4</v>
       </c>
       <c r="E3" s="20"/>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="2:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3"/>
     </row>
-    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="20"/>
+    <row r="5" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+    <row r="6" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
+    <row r="7" spans="2:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="6"/>
       <c r="J8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="8"/>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="9"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="O8" s="8"/>
-      <c r="P8" s="10" t="s">
+      <c r="P8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12" t="s">
+      <c r="Q8" s="10"/>
+      <c r="R8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="10" t="s">
+      <c r="S8" s="10"/>
+      <c r="T8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="13" t="s">
+      <c r="U8" s="10"/>
+      <c r="V8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="15" t="s">
+      <c r="W8" s="4"/>
+      <c r="X8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="13" t="s">
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AA8" s="14"/>
+      <c r="AA8" s="4"/>
     </row>
-    <row r="9" spans="2:27" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="14">
+        <v>64</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="14">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="14">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="14">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="14">
+        <v>0</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="14">
+        <v>19</v>
+      </c>
+      <c r="X9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y9" s="14">
         <v>13</v>
       </c>
-      <c r="C9" s="17">
-        <f>SUM(E9,G9,I9,K9,M9,O9,Q9,S9,U9,W9,Y9,AA9)</f>
+      <c r="Z9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="16">
+        <v>57</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="16">
+        <v>0</v>
+      </c>
+      <c r="T10" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="U10" s="16">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" s="16">
         <v>14</v>
       </c>
-      <c r="E9" s="18">
+      <c r="X10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="16">
+        <v>57</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="16">
+        <v>0</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U11" s="16">
+        <v>0</v>
+      </c>
+      <c r="V11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W11" s="16">
+        <v>14</v>
+      </c>
+      <c r="X11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="16">
+        <v>54</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" s="16">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W12" s="16">
+        <v>14</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="16">
+        <v>54</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W13" s="16">
+        <v>14</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="16">
+        <v>53</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" s="16">
+        <v>0</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" s="16">
+        <v>14</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="16">
+        <v>53</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="16">
+        <v>0</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>0</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S15" s="16">
+        <v>0</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U15" s="16">
+        <v>0</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W15" s="16">
+        <v>14</v>
+      </c>
+      <c r="X15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="16">
+        <v>52</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="16">
+        <v>0</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="16">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U16" s="16">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" s="16">
+        <v>19</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA16" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="16">
+        <v>52</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="16">
+        <v>0</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="16">
+        <v>0</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>0</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S17" s="16">
+        <v>0</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U17" s="16">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W17" s="16">
+        <v>19</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z17" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA17" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="16">
+        <v>51</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="16">
+        <v>0</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="16">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="16">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U18" s="16">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="16">
+        <v>19</v>
+      </c>
+      <c r="X18" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA18" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="16">
+        <v>51</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="16">
+        <v>0</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" s="16">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>0</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S19" s="16">
+        <v>0</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U19" s="16">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W19" s="16">
+        <v>19</v>
+      </c>
+      <c r="X19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="16">
+        <v>49</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="16">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O20" s="16">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S20" s="16">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="U20" s="16">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W20" s="16">
+        <v>19</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y20" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA20" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="16">
+        <v>47</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="16">
+        <v>0</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="16">
+        <v>0</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>0</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S21" s="16">
+        <v>0</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U21" s="16">
+        <v>0</v>
+      </c>
+      <c r="V21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W21" s="16">
+        <v>19</v>
+      </c>
+      <c r="X21" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y21" s="16">
+        <v>-3</v>
+      </c>
+      <c r="Z21" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA21" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="16">
+        <v>44</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="16">
+        <v>0</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="16">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>0</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S22" s="16">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="16">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W22" s="16">
+        <v>14</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y22" s="16">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA22" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="16">
+        <v>44</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="16">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="16">
+        <v>0</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>0</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" s="16">
+        <v>0</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U23" s="16">
+        <v>0</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W23" s="16">
+        <v>14</v>
+      </c>
+      <c r="X23" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA23" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="16">
+        <v>43</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="16">
+        <v>0</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O24" s="16">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>0</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S24" s="16">
+        <v>0</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24" s="16">
+        <v>0</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W24" s="16">
+        <v>14</v>
+      </c>
+      <c r="X24" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y24" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA24" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="16">
+        <v>43</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="16">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="16">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="16">
+        <v>0</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>0</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S25" s="16">
+        <v>0</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U25" s="16">
+        <v>0</v>
+      </c>
+      <c r="V25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W25" s="16">
+        <v>14</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y25" s="16">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA25" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="16">
+        <v>41</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="16">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="16">
+        <v>0</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" s="16">
+        <v>0</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>0</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S26" s="16">
+        <v>0</v>
+      </c>
+      <c r="T26" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+      <c r="V26" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W26" s="16">
+        <v>14</v>
+      </c>
+      <c r="X26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y26" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="16">
+        <v>41</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27" s="16">
+        <v>0</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="16">
+        <v>0</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>0</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S27" s="16">
+        <v>0</v>
+      </c>
+      <c r="T27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U27" s="16">
+        <v>0</v>
+      </c>
+      <c r="V27" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W27" s="16">
+        <v>19</v>
+      </c>
+      <c r="X27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y27" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z27" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA27" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="16">
+        <v>40</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="16">
+        <v>0</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O28" s="16">
+        <v>0</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S28" s="16">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U28" s="16">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W28" s="16">
+        <v>14</v>
+      </c>
+      <c r="X28" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y28" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="16">
+        <v>39</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M29" s="16">
+        <v>0</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O29" s="16">
+        <v>0</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>0</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S29" s="16">
+        <v>0</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U29" s="16">
+        <v>0</v>
+      </c>
+      <c r="V29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W29" s="16">
+        <v>19</v>
+      </c>
+      <c r="X29" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA29" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="16">
+        <v>37</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O30" s="16">
+        <v>0</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>0</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S30" s="16">
+        <v>0</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U30" s="16">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W30" s="16">
+        <v>14</v>
+      </c>
+      <c r="X30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y30" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z30" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="16">
+        <v>37</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="16">
+        <v>0</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31" s="16">
+        <v>0</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>0</v>
+      </c>
+      <c r="R31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S31" s="16">
+        <v>0</v>
+      </c>
+      <c r="T31" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U31" s="16">
+        <v>0</v>
+      </c>
+      <c r="V31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="16">
+        <v>14</v>
+      </c>
+      <c r="X31" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y31" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z31" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA31" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="16">
+        <v>37</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="16">
+        <v>0</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="16">
+        <v>0</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O32" s="16">
+        <v>0</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>0</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S32" s="16">
+        <v>0</v>
+      </c>
+      <c r="T32" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U32" s="16">
+        <v>0</v>
+      </c>
+      <c r="V32" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W32" s="16">
+        <v>14</v>
+      </c>
+      <c r="X32" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y32" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z32" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="16">
+        <v>37</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="16">
+        <v>0</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M33" s="16">
+        <v>0</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="16">
+        <v>0</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>0</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S33" s="16">
+        <v>0</v>
+      </c>
+      <c r="T33" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U33" s="16">
+        <v>0</v>
+      </c>
+      <c r="V33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W33" s="16">
+        <v>19</v>
+      </c>
+      <c r="X33" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y33" s="16">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA33" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="16">
+        <v>37</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="16">
+        <v>0</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="16">
+        <v>0</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O34" s="16">
+        <v>0</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>0</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S34" s="16">
+        <v>0</v>
+      </c>
+      <c r="T34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U34" s="16">
+        <v>0</v>
+      </c>
+      <c r="V34" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W34" s="16">
+        <v>14</v>
+      </c>
+      <c r="X34" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y34" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z34" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA34" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="16">
+        <v>37</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O35" s="16">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>0</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S35" s="16">
+        <v>0</v>
+      </c>
+      <c r="T35" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U35" s="16">
+        <v>0</v>
+      </c>
+      <c r="V35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W35" s="16">
+        <v>14</v>
+      </c>
+      <c r="X35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y35" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z35" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA35" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="16">
+        <v>35</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="16">
+        <v>0</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="16">
+        <v>0</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" s="16">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" s="16">
+        <v>0</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="16">
+        <v>0</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q36" s="16">
+        <v>0</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S36" s="16">
+        <v>0</v>
+      </c>
+      <c r="T36" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U36" s="16">
+        <v>0</v>
+      </c>
+      <c r="V36" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W36" s="16">
+        <v>14</v>
+      </c>
+      <c r="X36" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y36" s="16">
+        <v>3</v>
+      </c>
+      <c r="Z36" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA36" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="16">
+        <v>32</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="16">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="16">
+        <v>0</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="16">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="16">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O37" s="16">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q37" s="16">
+        <v>0</v>
+      </c>
+      <c r="R37" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" s="16">
+        <v>0</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U37" s="16">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W37" s="16">
+        <v>14</v>
+      </c>
+      <c r="X37" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y37" s="16">
+        <v>3</v>
+      </c>
+      <c r="Z37" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA37" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="16">
+        <v>32</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="16">
+        <v>0</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I38" s="16">
+        <v>0</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="16">
+        <v>0</v>
+      </c>
+      <c r="L38" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M38" s="16">
+        <v>0</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O38" s="16">
+        <v>0</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q38" s="16">
+        <v>0</v>
+      </c>
+      <c r="R38" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S38" s="16">
+        <v>0</v>
+      </c>
+      <c r="T38" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U38" s="16">
+        <v>0</v>
+      </c>
+      <c r="V38" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="W38" s="16">
+        <v>14</v>
+      </c>
+      <c r="X38" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y38" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA38" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="16">
+        <v>31</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="16">
+        <v>0</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="16">
+        <v>0</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="16">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M39" s="16">
+        <v>0</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O39" s="16">
+        <v>0</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>0</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S39" s="16">
+        <v>0</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U39" s="16">
+        <v>0</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W39" s="16">
+        <v>19</v>
+      </c>
+      <c r="X39" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y39" s="16">
+        <v>-3</v>
+      </c>
+      <c r="Z39" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA39" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="16">
+        <v>30</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G40" s="16">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="16">
+        <v>0</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="16">
+        <v>0</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="16">
+        <v>0</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" s="16">
+        <v>0</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>0</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S40" s="16">
+        <v>0</v>
+      </c>
+      <c r="T40" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U40" s="16">
+        <v>0</v>
+      </c>
+      <c r="V40" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="W40" s="16">
+        <v>14</v>
+      </c>
+      <c r="X40" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y40" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z40" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA40" s="16">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="16">
+        <v>28</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="16">
+        <v>0</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="16">
+        <v>0</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" s="16">
+        <v>0</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" s="16">
+        <v>0</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" s="16">
+        <v>0</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q41" s="16">
+        <v>0</v>
+      </c>
+      <c r="R41" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S41" s="16">
+        <v>0</v>
+      </c>
+      <c r="T41" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U41" s="16">
+        <v>0</v>
+      </c>
+      <c r="V41" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W41" s="16">
+        <v>14</v>
+      </c>
+      <c r="X41" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y41" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z41" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA41" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="16">
+        <v>27</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="16">
+        <v>0</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="16">
+        <v>0</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M42" s="16">
+        <v>0</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O42" s="16">
+        <v>0</v>
+      </c>
+      <c r="P42" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q42" s="16">
+        <v>0</v>
+      </c>
+      <c r="R42" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S42" s="16">
+        <v>0</v>
+      </c>
+      <c r="T42" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U42" s="16">
+        <v>0</v>
+      </c>
+      <c r="V42" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W42" s="16">
+        <v>14</v>
+      </c>
+      <c r="X42" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y42" s="16">
+        <v>3</v>
+      </c>
+      <c r="Z42" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA42" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="16">
+        <v>26</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="16">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I43" s="16">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K43" s="16">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M43" s="16">
+        <v>0</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O43" s="16">
+        <v>0</v>
+      </c>
+      <c r="P43" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>0</v>
+      </c>
+      <c r="R43" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S43" s="16">
+        <v>0</v>
+      </c>
+      <c r="T43" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="U43" s="16">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W43" s="16">
+        <v>19</v>
+      </c>
+      <c r="X43" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y43" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z43" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA43" s="16">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="16">
+        <v>24</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="16">
+        <v>0</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" s="16">
+        <v>0</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="16">
+        <v>0</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M44" s="16">
+        <v>0</v>
+      </c>
+      <c r="N44" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O44" s="16">
+        <v>0</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q44" s="16">
+        <v>0</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S44" s="16">
+        <v>0</v>
+      </c>
+      <c r="T44" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U44" s="16">
+        <v>0</v>
+      </c>
+      <c r="V44" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="W44" s="16">
+        <v>14</v>
+      </c>
+      <c r="X44" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y44" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA44" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="16">
+        <v>24</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="16">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I45" s="16">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="16">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="16">
+        <v>0</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O45" s="16">
+        <v>0</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q45" s="16">
+        <v>0</v>
+      </c>
+      <c r="R45" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S45" s="16">
+        <v>0</v>
+      </c>
+      <c r="T45" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U45" s="16">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W45" s="16">
+        <v>14</v>
+      </c>
+      <c r="X45" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y45" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA45" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="16">
+        <v>23</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="16">
+        <v>0</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="16">
+        <v>0</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="16">
+        <v>0</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="16">
+        <v>0</v>
+      </c>
+      <c r="L46" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46" s="16">
+        <v>0</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O46" s="16">
+        <v>0</v>
+      </c>
+      <c r="P46" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q46" s="16">
+        <v>0</v>
+      </c>
+      <c r="R46" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S46" s="16">
+        <v>0</v>
+      </c>
+      <c r="T46" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U46" s="16">
+        <v>0</v>
+      </c>
+      <c r="V46" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="W46" s="16">
+        <v>14</v>
+      </c>
+      <c r="X46" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y46" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z46" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA46" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="16">
+        <v>21</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="16">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="16">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="16">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="16">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M47" s="16">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O47" s="16">
+        <v>0</v>
+      </c>
+      <c r="P47" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q47" s="16">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S47" s="16">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U47" s="16">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W47" s="16">
+        <v>14</v>
+      </c>
+      <c r="X47" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y47" s="16">
+        <v>-3</v>
+      </c>
+      <c r="Z47" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA47" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="16">
+        <v>17</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="16">
+        <v>0</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="16">
+        <v>0</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M48" s="16">
+        <v>0</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O48" s="16">
+        <v>0</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q48" s="16">
+        <v>0</v>
+      </c>
+      <c r="R48" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S48" s="16">
+        <v>0</v>
+      </c>
+      <c r="T48" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="U48" s="16">
+        <v>0</v>
+      </c>
+      <c r="V48" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W48" s="16">
+        <v>14</v>
+      </c>
+      <c r="X48" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y48" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA48" s="16">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="16">
+        <v>17</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="16">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="16">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="16">
+        <v>0</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O49" s="16">
+        <v>0</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q49" s="16">
+        <v>0</v>
+      </c>
+      <c r="R49" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S49" s="16">
+        <v>0</v>
+      </c>
+      <c r="T49" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="U49" s="16">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W49" s="16">
+        <v>14</v>
+      </c>
+      <c r="X49" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y49" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA49" s="16">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="16">
+        <v>16</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="16">
+        <v>0</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="16">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="16">
+        <v>0</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="16">
+        <v>0</v>
+      </c>
+      <c r="L50" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M50" s="16">
+        <v>0</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O50" s="16">
+        <v>0</v>
+      </c>
+      <c r="P50" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q50" s="16">
+        <v>0</v>
+      </c>
+      <c r="R50" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S50" s="16">
+        <v>0</v>
+      </c>
+      <c r="T50" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U50" s="16">
+        <v>0</v>
+      </c>
+      <c r="V50" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="W50" s="16">
+        <v>14</v>
+      </c>
+      <c r="X50" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y50" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z50" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA50" s="16">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="16">
+        <v>16</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="16">
+        <v>0</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="16">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="16">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" s="16">
+        <v>0</v>
+      </c>
+      <c r="N51" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O51" s="16">
+        <v>0</v>
+      </c>
+      <c r="P51" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q51" s="16">
+        <v>0</v>
+      </c>
+      <c r="R51" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S51" s="16">
+        <v>0</v>
+      </c>
+      <c r="T51" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U51" s="16">
+        <v>0</v>
+      </c>
+      <c r="V51" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="W51" s="16">
+        <v>14</v>
+      </c>
+      <c r="X51" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y51" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z51" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA51" s="16">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="16">
         <v>5</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="18">
-        <v>15</v>
-      </c>
-      <c r="H9" s="18" t="s">
+      <c r="D52" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="16">
+        <v>0</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="16">
+        <v>0</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52" s="16">
+        <v>0</v>
+      </c>
+      <c r="J52" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="16">
+        <v>0</v>
+      </c>
+      <c r="L52" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="16">
+        <v>0</v>
+      </c>
+      <c r="N52" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O52" s="16">
+        <v>0</v>
+      </c>
+      <c r="P52" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q52" s="16">
+        <v>0</v>
+      </c>
+      <c r="R52" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S52" s="16">
+        <v>0</v>
+      </c>
+      <c r="T52" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U52" s="16">
+        <v>0</v>
+      </c>
+      <c r="V52" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W52" s="16">
+        <v>-10</v>
+      </c>
+      <c r="X52" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y52" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z52" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA52" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="16">
+        <v>-5</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="16">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I53" s="16">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K53" s="16">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53" s="16">
+        <v>0</v>
+      </c>
+      <c r="N53" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O53" s="16">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q53" s="16">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S53" s="16">
+        <v>0</v>
+      </c>
+      <c r="T53" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="U53" s="16">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W53" s="16">
+        <v>-10</v>
+      </c>
+      <c r="X53" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y53" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z53" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA53" s="16">
         <v>16</v>
       </c>
-      <c r="I9" s="18">
+    </row>
+    <row r="54" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="16">
+        <v>-6</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="16">
+        <v>0</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="16">
+        <v>0</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="16">
+        <v>0</v>
+      </c>
+      <c r="J54" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" s="16">
+        <v>0</v>
+      </c>
+      <c r="L54" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="16">
+        <v>0</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O54" s="16">
+        <v>0</v>
+      </c>
+      <c r="P54" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q54" s="16">
+        <v>0</v>
+      </c>
+      <c r="R54" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S54" s="16">
+        <v>0</v>
+      </c>
+      <c r="T54" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="U54" s="16">
+        <v>0</v>
+      </c>
+      <c r="V54" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W54" s="16">
+        <v>-10</v>
+      </c>
+      <c r="X54" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y54" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z54" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA54" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="16">
         <v>-7</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="D55" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="16">
+        <v>0</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" s="16">
+        <v>0</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="16">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="16">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="16">
+        <v>0</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O55" s="16">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q55" s="16">
+        <v>0</v>
+      </c>
+      <c r="R55" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S55" s="16">
+        <v>0</v>
+      </c>
+      <c r="T55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U55" s="16">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W55" s="16">
+        <v>-10</v>
+      </c>
+      <c r="X55" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y55" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA55" s="16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="16">
+        <v>-8</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="16">
+        <v>0</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" s="16">
+        <v>0</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" s="16">
+        <v>0</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K56" s="16">
+        <v>0</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="16">
+        <v>0</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="O56" s="16">
+        <v>0</v>
+      </c>
+      <c r="P56" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q56" s="16">
+        <v>0</v>
+      </c>
+      <c r="R56" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S56" s="16">
+        <v>0</v>
+      </c>
+      <c r="T56" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U56" s="16">
+        <v>0</v>
+      </c>
+      <c r="V56" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W56" s="16">
+        <v>-10</v>
+      </c>
+      <c r="X56" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y56" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA56" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="16">
+        <v>-8</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="16">
+        <v>0</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="16">
+        <v>0</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I57" s="16">
+        <v>0</v>
+      </c>
+      <c r="J57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K57" s="16">
+        <v>0</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M57" s="16">
+        <v>0</v>
+      </c>
+      <c r="N57" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O57" s="16">
+        <v>0</v>
+      </c>
+      <c r="P57" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q57" s="16">
+        <v>0</v>
+      </c>
+      <c r="R57" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S57" s="16">
+        <v>0</v>
+      </c>
+      <c r="T57" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="U57" s="16">
+        <v>0</v>
+      </c>
+      <c r="V57" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W57" s="16">
+        <v>-10</v>
+      </c>
+      <c r="X57" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y57" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA57" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="16">
+        <v>-9</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="18">
-        <v>-6</v>
-      </c>
-      <c r="L9" s="18" t="s">
+      <c r="E58" s="16">
+        <v>0</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="16">
+        <v>0</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="16">
+        <v>0</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K58" s="16">
+        <v>0</v>
+      </c>
+      <c r="L58" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" s="16">
+        <v>0</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="O58" s="16">
+        <v>0</v>
+      </c>
+      <c r="P58" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q58" s="16">
+        <v>0</v>
+      </c>
+      <c r="R58" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S58" s="16">
+        <v>0</v>
+      </c>
+      <c r="T58" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U58" s="16">
+        <v>0</v>
+      </c>
+      <c r="V58" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W58" s="16">
+        <v>-10</v>
+      </c>
+      <c r="X58" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y58" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z58" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA58" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="16">
+        <v>-9</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="18">
-        <v>8</v>
-      </c>
-      <c r="N9" s="18" t="s">
+      <c r="E59" s="16">
+        <v>0</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G59" s="16">
+        <v>0</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="16">
+        <v>0</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="16">
+        <v>0</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="16">
+        <v>0</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O59" s="16">
+        <v>0</v>
+      </c>
+      <c r="P59" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q59" s="16">
+        <v>0</v>
+      </c>
+      <c r="R59" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S59" s="16">
+        <v>0</v>
+      </c>
+      <c r="T59" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U59" s="16">
+        <v>0</v>
+      </c>
+      <c r="V59" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W59" s="16">
+        <v>-10</v>
+      </c>
+      <c r="X59" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y59" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z59" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA59" s="16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C60" s="16">
+        <v>-11</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="16">
+        <v>0</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" s="16">
+        <v>0</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="16">
+        <v>0</v>
+      </c>
+      <c r="J60" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="16">
+        <v>0</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" s="16">
+        <v>0</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O60" s="16">
+        <v>0</v>
+      </c>
+      <c r="P60" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q60" s="16">
+        <v>0</v>
+      </c>
+      <c r="R60" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S60" s="16">
+        <v>0</v>
+      </c>
+      <c r="T60" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U60" s="16">
+        <v>0</v>
+      </c>
+      <c r="V60" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W60" s="16">
+        <v>-10</v>
+      </c>
+      <c r="X60" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y60" s="16">
+        <v>13</v>
+      </c>
+      <c r="Z60" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA60" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="16">
+        <v>-20</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="16">
+        <v>0</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G61" s="16">
+        <v>0</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="16">
+        <v>0</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="16">
+        <v>0</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="16">
+        <v>0</v>
+      </c>
+      <c r="N61" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O61" s="16">
+        <v>0</v>
+      </c>
+      <c r="P61" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q61" s="16">
+        <v>0</v>
+      </c>
+      <c r="R61" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S61" s="16">
+        <v>0</v>
+      </c>
+      <c r="T61" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="U61" s="16">
+        <v>0</v>
+      </c>
+      <c r="V61" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W61" s="16">
+        <v>-10</v>
+      </c>
+      <c r="X61" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y61" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA61" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="16">
+        <v>-24</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="16">
+        <v>0</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G62" s="16">
+        <v>0</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="16">
+        <v>0</v>
+      </c>
+      <c r="J62" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K62" s="16">
+        <v>0</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M62" s="16">
+        <v>0</v>
+      </c>
+      <c r="N62" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O62" s="16">
+        <v>0</v>
+      </c>
+      <c r="P62" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q62" s="16">
+        <v>0</v>
+      </c>
+      <c r="R62" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S62" s="16">
+        <v>0</v>
+      </c>
+      <c r="T62" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U62" s="16">
+        <v>0</v>
+      </c>
+      <c r="V62" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W62" s="16">
+        <v>-10</v>
+      </c>
+      <c r="X62" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y62" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA62" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="16">
+        <v>-25</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="16">
+        <v>0</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G63" s="16">
+        <v>0</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="16">
+        <v>0</v>
+      </c>
+      <c r="J63" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K63" s="16">
+        <v>0</v>
+      </c>
+      <c r="L63" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="16">
+        <v>0</v>
+      </c>
+      <c r="N63" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O63" s="16">
+        <v>0</v>
+      </c>
+      <c r="P63" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q63" s="16">
+        <v>0</v>
+      </c>
+      <c r="R63" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="S63" s="16">
+        <v>0</v>
+      </c>
+      <c r="T63" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="U63" s="16">
+        <v>0</v>
+      </c>
+      <c r="V63" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W63" s="16">
+        <v>-10</v>
+      </c>
+      <c r="X63" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y63" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z63" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA63" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="16">
+        <v>-25</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="16">
+        <v>0</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G64" s="16">
+        <v>0</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I64" s="16">
+        <v>0</v>
+      </c>
+      <c r="J64" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="18">
-        <v>12</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>14</v>
-      </c>
-      <c r="R9" s="18" t="s">
+      <c r="K64" s="16">
+        <v>0</v>
+      </c>
+      <c r="L64" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="S9" s="18">
-        <v>-8</v>
-      </c>
-      <c r="T9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="U9" s="18">
-        <v>-5</v>
-      </c>
-      <c r="V9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="W9" s="18">
-        <v>3</v>
-      </c>
-      <c r="X9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA9" s="18">
-        <v>8</v>
+      <c r="M64" s="16">
+        <v>0</v>
+      </c>
+      <c r="N64" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="O64" s="16">
+        <v>0</v>
+      </c>
+      <c r="P64" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q64" s="16">
+        <v>0</v>
+      </c>
+      <c r="R64" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="S64" s="16">
+        <v>0</v>
+      </c>
+      <c r="T64" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U64" s="16">
+        <v>0</v>
+      </c>
+      <c r="V64" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="W64" s="16">
+        <v>-10</v>
+      </c>
+      <c r="X64" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y64" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z64" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA64" s="16">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" s="18">
+        <v>-34</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="18">
+        <v>0</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65" s="18">
+        <v>0</v>
+      </c>
+      <c r="H65" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I65" s="18">
+        <v>0</v>
+      </c>
+      <c r="J65" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" s="18">
+        <v>0</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M65" s="18">
+        <v>0</v>
+      </c>
+      <c r="N65" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O65" s="18">
+        <v>0</v>
+      </c>
+      <c r="P65" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q65" s="18">
+        <v>0</v>
+      </c>
+      <c r="R65" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S65" s="18">
+        <v>0</v>
+      </c>
+      <c r="T65" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="U65" s="18">
+        <v>0</v>
+      </c>
+      <c r="V65" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="W65" s="18">
+        <v>-10</v>
+      </c>
+      <c r="X65" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y65" s="18">
+        <v>-3</v>
+      </c>
+      <c r="Z65" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA65" s="18">
+        <v>-11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="N8:O8"/>
@@ -1389,8 +6367,16 @@
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
